--- a/CumulativeTestsByTypeByCounty/2021-02-23.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-23.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>46773</v>
+        <v>46779</v>
       </c>
       <c r="C2" s="4">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D2" s="4">
-        <v>5410</v>
+        <v>5463</v>
       </c>
       <c r="E2" s="4">
-        <v>53589</v>
+        <v>53651</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3899</v>
+        <v>3902</v>
       </c>
       <c r="C3" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="E3" s="4">
-        <v>5985</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>49542</v>
+        <v>49550</v>
       </c>
       <c r="C4" s="4">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D4" s="4">
-        <v>16277</v>
+        <v>16413</v>
       </c>
       <c r="E4" s="4">
-        <v>67273</v>
+        <v>67419</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6500</v>
+        <v>6516</v>
       </c>
       <c r="C5" s="4">
         <v>2000</v>
       </c>
       <c r="D5" s="4">
-        <v>4193</v>
+        <v>4214</v>
       </c>
       <c r="E5" s="4">
-        <v>12693</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="C6" s="4">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D6" s="4">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E6" s="4">
-        <v>3499</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C7" s="4">
         <v>211</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>46626</v>
+        <v>46663</v>
       </c>
       <c r="C8" s="4">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D8" s="4">
-        <v>3533</v>
+        <v>3543</v>
       </c>
       <c r="E8" s="4">
-        <v>51121</v>
+        <v>51170</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15539</v>
+        <v>15557</v>
       </c>
       <c r="C9" s="4">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D9" s="4">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="E9" s="4">
-        <v>16707</v>
+        <v>16734</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1213,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E10" s="4">
-        <v>2131</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6886</v>
+        <v>6902</v>
       </c>
       <c r="C11" s="4">
         <v>393</v>
       </c>
       <c r="D11" s="4">
-        <v>2553</v>
+        <v>2566</v>
       </c>
       <c r="E11" s="4">
-        <v>9832</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>44139</v>
+        <v>44207</v>
       </c>
       <c r="C12" s="4">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D12" s="4">
-        <v>12896</v>
+        <v>13032</v>
       </c>
       <c r="E12" s="4">
-        <v>58070</v>
+        <v>58275</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>28260</v>
+        <v>28279</v>
       </c>
       <c r="C14" s="4">
         <v>4895</v>
       </c>
       <c r="D14" s="4">
-        <v>5514</v>
+        <v>5577</v>
       </c>
       <c r="E14" s="4">
-        <v>38669</v>
+        <v>38751</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>212791</v>
+        <v>213245</v>
       </c>
       <c r="C15" s="4">
-        <v>12773</v>
+        <v>12790</v>
       </c>
       <c r="D15" s="4">
-        <v>9379</v>
+        <v>9427</v>
       </c>
       <c r="E15" s="4">
-        <v>234943</v>
+        <v>235462</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1606343</v>
+        <v>1610074</v>
       </c>
       <c r="C16" s="4">
-        <v>40816</v>
+        <v>40836</v>
       </c>
       <c r="D16" s="4">
-        <v>147384</v>
+        <v>148602</v>
       </c>
       <c r="E16" s="4">
-        <v>1794543</v>
+        <v>1799512</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5053</v>
+        <v>5062</v>
       </c>
       <c r="C17" s="4">
         <v>216</v>
       </c>
       <c r="D17" s="4">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E17" s="4">
-        <v>5777</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4">
         <v>9</v>
@@ -1352,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8019</v>
+        <v>8027</v>
       </c>
       <c r="C19" s="4">
         <v>458</v>
       </c>
       <c r="D19" s="4">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="E19" s="4">
-        <v>12411</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>53824</v>
+        <v>53861</v>
       </c>
       <c r="C20" s="4">
         <v>9673</v>
       </c>
       <c r="D20" s="4">
-        <v>7586</v>
+        <v>7594</v>
       </c>
       <c r="E20" s="4">
-        <v>71083</v>
+        <v>71128</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>273722</v>
+        <v>274165</v>
       </c>
       <c r="C21" s="4">
-        <v>8496</v>
+        <v>8515</v>
       </c>
       <c r="D21" s="4">
-        <v>23793</v>
+        <v>24037</v>
       </c>
       <c r="E21" s="4">
-        <v>306011</v>
+        <v>306717</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>208446</v>
+        <v>208722</v>
       </c>
       <c r="C22" s="4">
-        <v>5284</v>
+        <v>5294</v>
       </c>
       <c r="D22" s="4">
-        <v>12594</v>
+        <v>12721</v>
       </c>
       <c r="E22" s="4">
-        <v>226324</v>
+        <v>226737</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8332</v>
+        <v>8341</v>
       </c>
       <c r="C23" s="4">
         <v>108</v>
       </c>
       <c r="D23" s="4">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E23" s="4">
-        <v>9038</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C24" s="4">
         <v>108</v>
@@ -1454,7 +1454,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="4">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12447</v>
+        <v>12450</v>
       </c>
       <c r="C25" s="4">
         <v>1250</v>
       </c>
       <c r="D25" s="4">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="E25" s="4">
-        <v>15111</v>
+        <v>15119</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15413</v>
+        <v>15424</v>
       </c>
       <c r="C26" s="4">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="D26" s="4">
-        <v>14812</v>
+        <v>14999</v>
       </c>
       <c r="E26" s="4">
-        <v>30939</v>
+        <v>31147</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12310</v>
+        <v>12330</v>
       </c>
       <c r="C27" s="4">
         <v>228</v>
       </c>
       <c r="D27" s="4">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="E27" s="4">
-        <v>14330</v>
+        <v>14360</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>28652</v>
+        <v>28701</v>
       </c>
       <c r="C28" s="4">
         <v>1016</v>
       </c>
       <c r="D28" s="4">
-        <v>2512</v>
+        <v>2529</v>
       </c>
       <c r="E28" s="4">
-        <v>32180</v>
+        <v>32246</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>28480</v>
+        <v>28544</v>
       </c>
       <c r="C29" s="4">
         <v>1495</v>
       </c>
       <c r="D29" s="4">
-        <v>4413</v>
+        <v>4428</v>
       </c>
       <c r="E29" s="4">
-        <v>34388</v>
+        <v>34467</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12162</v>
+        <v>12174</v>
       </c>
       <c r="C30" s="4">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D30" s="4">
-        <v>3784</v>
+        <v>3794</v>
       </c>
       <c r="E30" s="4">
-        <v>16240</v>
+        <v>16264</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1570,10 +1570,10 @@
         <v>214</v>
       </c>
       <c r="D31" s="4">
-        <v>4184</v>
+        <v>4208</v>
       </c>
       <c r="E31" s="4">
-        <v>9132</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>219730</v>
+        <v>220314</v>
       </c>
       <c r="C32" s="4">
-        <v>7215</v>
+        <v>7245</v>
       </c>
       <c r="D32" s="4">
-        <v>34004</v>
+        <v>34300</v>
       </c>
       <c r="E32" s="4">
-        <v>260949</v>
+        <v>261859</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5270</v>
+        <v>5274</v>
       </c>
       <c r="C33" s="4">
         <v>347</v>
       </c>
       <c r="D33" s="4">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="E33" s="4">
-        <v>6992</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="C34" s="4">
         <v>758</v>
       </c>
       <c r="D34" s="4">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E34" s="4">
-        <v>2458</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10935</v>
+        <v>10940</v>
       </c>
       <c r="C35" s="4">
         <v>3081</v>
       </c>
       <c r="D35" s="4">
-        <v>2660</v>
+        <v>2683</v>
       </c>
       <c r="E35" s="4">
-        <v>16676</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1655,10 +1655,10 @@
         <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="E36" s="4">
-        <v>5368</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7055</v>
+        <v>7060</v>
       </c>
       <c r="C37" s="4">
         <v>533</v>
       </c>
       <c r="D37" s="4">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E37" s="4">
-        <v>8592</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>20458</v>
+        <v>20500</v>
       </c>
       <c r="C38" s="4">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D38" s="4">
-        <v>6118</v>
+        <v>6128</v>
       </c>
       <c r="E38" s="4">
-        <v>27300</v>
+        <v>27354</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="C39" s="4">
         <v>297</v>
       </c>
       <c r="D39" s="4">
-        <v>3858</v>
+        <v>3919</v>
       </c>
       <c r="E39" s="4">
-        <v>6777</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>360</v>
       </c>
       <c r="D40" s="4">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E40" s="4">
-        <v>5152</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
@@ -1743,7 +1743,7 @@
         <v>232</v>
       </c>
       <c r="E41" s="4">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E42" s="4">
-        <v>3344</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C43" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" s="4">
-        <v>2230</v>
+        <v>2239</v>
       </c>
       <c r="E43" s="4">
-        <v>5170</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>779128</v>
+        <v>780605</v>
       </c>
       <c r="C44" s="4">
-        <v>74731</v>
+        <v>74827</v>
       </c>
       <c r="D44" s="4">
-        <v>69772</v>
+        <v>70496</v>
       </c>
       <c r="E44" s="4">
-        <v>923631</v>
+        <v>925928</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C45" s="4">
         <v>86</v>
       </c>
       <c r="D45" s="4">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="E45" s="4">
-        <v>2196</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10604</v>
+        <v>10615</v>
       </c>
       <c r="C46" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D46" s="4">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="E46" s="4">
-        <v>13878</v>
+        <v>13893</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>83835</v>
+        <v>83968</v>
       </c>
       <c r="C47" s="4">
-        <v>6288</v>
+        <v>6294</v>
       </c>
       <c r="D47" s="4">
-        <v>14544</v>
+        <v>14657</v>
       </c>
       <c r="E47" s="4">
-        <v>104667</v>
+        <v>104919</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6045</v>
+        <v>6049</v>
       </c>
       <c r="C48" s="4">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D48" s="4">
-        <v>1929</v>
+        <v>1944</v>
       </c>
       <c r="E48" s="4">
-        <v>8263</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1876,10 +1876,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1251</v>
+        <v>1287</v>
       </c>
       <c r="E49" s="4">
-        <v>2588</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21239</v>
+        <v>21262</v>
       </c>
       <c r="C50" s="4">
         <v>1225</v>
       </c>
       <c r="D50" s="4">
-        <v>3936</v>
+        <v>3964</v>
       </c>
       <c r="E50" s="4">
-        <v>26400</v>
+        <v>26451</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>75591</v>
+        <v>75772</v>
       </c>
       <c r="C51" s="4">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D51" s="4">
-        <v>2532</v>
+        <v>2542</v>
       </c>
       <c r="E51" s="4">
-        <v>80212</v>
+        <v>80404</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="E52" s="4">
-        <v>1277</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="C53" s="4">
         <v>63</v>
       </c>
       <c r="D53" s="4">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E53" s="4">
-        <v>5107</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E54" s="4">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="E55" s="4">
-        <v>3660</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2050</v>
+        <v>2056</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>116</v>
       </c>
       <c r="E56" s="4">
-        <v>2178</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C57" s="4">
         <v>254</v>
       </c>
       <c r="D57" s="4">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E57" s="4">
-        <v>2497</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1991657</v>
+        <v>1995383</v>
       </c>
       <c r="C58" s="4">
-        <v>123009</v>
+        <v>123127</v>
       </c>
       <c r="D58" s="4">
-        <v>146453</v>
+        <v>147711</v>
       </c>
       <c r="E58" s="4">
-        <v>2261119</v>
+        <v>2266221</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7127</v>
+        <v>7129</v>
       </c>
       <c r="C59" s="4">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D59" s="4">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="E59" s="4">
-        <v>9395</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7938</v>
+        <v>7948</v>
       </c>
       <c r="C60" s="4">
         <v>177</v>
       </c>
       <c r="D60" s="4">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="E60" s="4">
-        <v>10155</v>
+        <v>10171</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4271</v>
+        <v>4278</v>
       </c>
       <c r="C61" s="4">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D61" s="4">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E61" s="4">
-        <v>6734</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="C62" s="4">
         <v>208</v>
@@ -2100,7 +2100,7 @@
         <v>904</v>
       </c>
       <c r="E62" s="4">
-        <v>2684</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>485530</v>
+        <v>486711</v>
       </c>
       <c r="C63" s="4">
-        <v>55092</v>
+        <v>55167</v>
       </c>
       <c r="D63" s="4">
-        <v>61887</v>
+        <v>62751</v>
       </c>
       <c r="E63" s="4">
-        <v>602509</v>
+        <v>604629</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="4">
         <v>7</v>
@@ -2134,7 +2134,7 @@
         <v>298</v>
       </c>
       <c r="E64" s="4">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9071</v>
+        <v>9082</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="E65" s="4">
-        <v>9900</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C66" s="4">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D66" s="4">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E66" s="4">
-        <v>1991</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15543</v>
+        <v>15545</v>
       </c>
       <c r="C67" s="4">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="D67" s="4">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="E67" s="4">
-        <v>19007</v>
+        <v>19016</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4266</v>
+        <v>4272</v>
       </c>
       <c r="C68" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D68" s="4">
-        <v>2878</v>
+        <v>3031</v>
       </c>
       <c r="E68" s="4">
-        <v>7470</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>53747</v>
+        <v>53822</v>
       </c>
       <c r="C69" s="4">
-        <v>4249</v>
+        <v>4255</v>
       </c>
       <c r="D69" s="4">
-        <v>13474</v>
+        <v>13678</v>
       </c>
       <c r="E69" s="4">
-        <v>71470</v>
+        <v>71755</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>308</v>
       </c>
       <c r="E70" s="4">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>750916</v>
+        <v>756778</v>
       </c>
       <c r="C71" s="4">
-        <v>15739</v>
+        <v>15774</v>
       </c>
       <c r="D71" s="4">
-        <v>146715</v>
+        <v>148283</v>
       </c>
       <c r="E71" s="4">
-        <v>913370</v>
+        <v>920835</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>142541</v>
+        <v>142770</v>
       </c>
       <c r="C72" s="4">
-        <v>6635</v>
+        <v>6639</v>
       </c>
       <c r="D72" s="4">
-        <v>7698</v>
+        <v>7801</v>
       </c>
       <c r="E72" s="4">
-        <v>156874</v>
+        <v>157210</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15698</v>
+        <v>15728</v>
       </c>
       <c r="C73" s="4">
         <v>1066</v>
       </c>
       <c r="D73" s="4">
-        <v>4929</v>
+        <v>5005</v>
       </c>
       <c r="E73" s="4">
-        <v>21693</v>
+        <v>21799</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11350</v>
+        <v>11364</v>
       </c>
       <c r="C74" s="4">
         <v>388</v>
       </c>
       <c r="D74" s="4">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E74" s="4">
-        <v>13187</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>22316</v>
+        <v>22364</v>
       </c>
       <c r="C75" s="4">
         <v>732</v>
       </c>
       <c r="D75" s="4">
-        <v>3747</v>
+        <v>3755</v>
       </c>
       <c r="E75" s="4">
-        <v>26795</v>
+        <v>26851</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12394</v>
+        <v>12403</v>
       </c>
       <c r="C76" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D76" s="4">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="E76" s="4">
-        <v>14394</v>
+        <v>14410</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2078</v>
+        <v>2083</v>
       </c>
       <c r="C78" s="4">
         <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E78" s="4">
-        <v>2479</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>551428</v>
+        <v>552663</v>
       </c>
       <c r="C80" s="4">
-        <v>20535</v>
+        <v>20569</v>
       </c>
       <c r="D80" s="4">
-        <v>25165</v>
+        <v>25625</v>
       </c>
       <c r="E80" s="4">
-        <v>597128</v>
+        <v>598857</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="C81" s="4">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D81" s="4">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E81" s="4">
-        <v>4940</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12555</v>
+        <v>12595</v>
       </c>
       <c r="C82" s="4">
         <v>638</v>
       </c>
       <c r="D82" s="4">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="E82" s="4">
-        <v>16736</v>
+        <v>16779</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>14631</v>
+        <v>14646</v>
       </c>
       <c r="C83" s="4">
         <v>402</v>
       </c>
       <c r="D83" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E83" s="4">
-        <v>15612</v>
+        <v>15628</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,7 +2465,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="C84" s="4">
         <v>204</v>
@@ -2474,7 +2474,7 @@
         <v>700</v>
       </c>
       <c r="E84" s="4">
-        <v>3947</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>295561</v>
+        <v>296070</v>
       </c>
       <c r="C85" s="4">
-        <v>8767</v>
+        <v>8779</v>
       </c>
       <c r="D85" s="4">
-        <v>19330</v>
+        <v>19675</v>
       </c>
       <c r="E85" s="4">
-        <v>323658</v>
+        <v>324524</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C86" s="4">
         <v>46</v>
       </c>
       <c r="D86" s="4">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E86" s="4">
-        <v>2852</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14467</v>
+        <v>14481</v>
       </c>
       <c r="C87" s="4">
         <v>333</v>
       </c>
       <c r="D87" s="4">
-        <v>2759</v>
+        <v>2776</v>
       </c>
       <c r="E87" s="4">
-        <v>17559</v>
+        <v>17590</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>26</v>
       </c>
       <c r="D88" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E88" s="4">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="C89" s="4">
         <v>147</v>
       </c>
       <c r="D89" s="4">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="E89" s="4">
-        <v>3922</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11547</v>
+        <v>11557</v>
       </c>
       <c r="C90" s="4">
         <v>283</v>
       </c>
       <c r="D90" s="4">
-        <v>2760</v>
+        <v>2768</v>
       </c>
       <c r="E90" s="4">
-        <v>14590</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6879</v>
+        <v>6882</v>
       </c>
       <c r="C91" s="4">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D91" s="4">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="E91" s="4">
-        <v>9208</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>89616</v>
+        <v>89691</v>
       </c>
       <c r="C92" s="4">
-        <v>3527</v>
+        <v>3539</v>
       </c>
       <c r="D92" s="4">
-        <v>10073</v>
+        <v>10160</v>
       </c>
       <c r="E92" s="4">
-        <v>103216</v>
+        <v>103390</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>42851</v>
+        <v>42878</v>
       </c>
       <c r="C93" s="4">
-        <v>9477</v>
+        <v>9526</v>
       </c>
       <c r="D93" s="4">
-        <v>12307</v>
+        <v>12377</v>
       </c>
       <c r="E93" s="4">
-        <v>64635</v>
+        <v>64781</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>24195</v>
+        <v>24224</v>
       </c>
       <c r="C94" s="4">
         <v>455</v>
       </c>
       <c r="D94" s="4">
-        <v>1673</v>
+        <v>1758</v>
       </c>
       <c r="E94" s="4">
-        <v>26323</v>
+        <v>26437</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>66933</v>
+        <v>67057</v>
       </c>
       <c r="C95" s="4">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="D95" s="4">
-        <v>12321</v>
+        <v>12400</v>
       </c>
       <c r="E95" s="4">
-        <v>82143</v>
+        <v>82349</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11823</v>
+        <v>11839</v>
       </c>
       <c r="C96" s="4">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="4">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E96" s="4">
-        <v>13878</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C97" s="4">
         <v>37</v>
       </c>
       <c r="D97" s="4">
-        <v>1878</v>
+        <v>1897</v>
       </c>
       <c r="E97" s="4">
-        <v>3006</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4478</v>
+        <v>4484</v>
       </c>
       <c r="C98" s="4">
         <v>291</v>
       </c>
       <c r="D98" s="4">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="E98" s="4">
-        <v>5736</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="C99" s="4">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D99" s="4">
-        <v>1626</v>
+        <v>1635</v>
       </c>
       <c r="E99" s="4">
-        <v>3319</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2743,10 +2743,10 @@
         <v>176</v>
       </c>
       <c r="D100" s="4">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E100" s="4">
-        <v>2375</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>17595</v>
+        <v>17610</v>
       </c>
       <c r="C101" s="4">
         <v>3091</v>
       </c>
       <c r="D101" s="4">
-        <v>4795</v>
+        <v>4869</v>
       </c>
       <c r="E101" s="4">
-        <v>25481</v>
+        <v>25570</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3375939</v>
+        <v>3384864</v>
       </c>
       <c r="C102" s="4">
-        <v>124258</v>
+        <v>124517</v>
       </c>
       <c r="D102" s="4">
-        <v>217326</v>
+        <v>219601</v>
       </c>
       <c r="E102" s="4">
-        <v>3717523</v>
+        <v>3728982</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>52577</v>
+        <v>52593</v>
       </c>
       <c r="C103" s="4">
-        <v>7019</v>
+        <v>7039</v>
       </c>
       <c r="D103" s="4">
-        <v>6989</v>
+        <v>7014</v>
       </c>
       <c r="E103" s="4">
-        <v>66585</v>
+        <v>66646</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="E105" s="4">
-        <v>2438</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>197923</v>
+        <v>198492</v>
       </c>
       <c r="C106" s="4">
-        <v>9928</v>
+        <v>9932</v>
       </c>
       <c r="D106" s="4">
-        <v>11120</v>
+        <v>11268</v>
       </c>
       <c r="E106" s="4">
-        <v>218971</v>
+        <v>219692</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,13 +2859,13 @@
         <v>930</v>
       </c>
       <c r="C107" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D107" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E107" s="4">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>23716</v>
+        <v>23732</v>
       </c>
       <c r="C108" s="4">
         <v>2039</v>
       </c>
       <c r="D108" s="4">
-        <v>5856</v>
+        <v>5934</v>
       </c>
       <c r="E108" s="4">
-        <v>31611</v>
+        <v>31705</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>388538</v>
+        <v>389325</v>
       </c>
       <c r="C109" s="4">
-        <v>14019</v>
+        <v>14069</v>
       </c>
       <c r="D109" s="4">
-        <v>81674</v>
+        <v>82088</v>
       </c>
       <c r="E109" s="4">
-        <v>484231</v>
+        <v>485482</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>29921</v>
+        <v>29953</v>
       </c>
       <c r="C110" s="4">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D110" s="4">
-        <v>4708</v>
+        <v>4713</v>
       </c>
       <c r="E110" s="4">
-        <v>35581</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7007</v>
+        <v>7012</v>
       </c>
       <c r="C111" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D111" s="4">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="E111" s="4">
-        <v>9762</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>31174</v>
+        <v>31213</v>
       </c>
       <c r="C112" s="4">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D112" s="4">
-        <v>15909</v>
+        <v>15923</v>
       </c>
       <c r="E112" s="4">
-        <v>49342</v>
+        <v>49396</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15177</v>
+        <v>15182</v>
       </c>
       <c r="C113" s="4">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D113" s="4">
-        <v>2334</v>
+        <v>2342</v>
       </c>
       <c r="E113" s="4">
-        <v>19323</v>
+        <v>19337</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13802</v>
+        <v>13805</v>
       </c>
       <c r="C114" s="4">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D114" s="4">
-        <v>2201</v>
+        <v>2211</v>
       </c>
       <c r="E114" s="4">
-        <v>16325</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>14326</v>
+        <v>14330</v>
       </c>
       <c r="C115" s="4">
         <v>433</v>
       </c>
       <c r="D115" s="4">
-        <v>3433</v>
+        <v>3453</v>
       </c>
       <c r="E115" s="4">
-        <v>18192</v>
+        <v>18216</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2277</v>
+        <v>2285</v>
       </c>
       <c r="C116" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E116" s="4">
-        <v>3215</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>66700</v>
+        <v>66781</v>
       </c>
       <c r="C117" s="4">
-        <v>3405</v>
+        <v>3414</v>
       </c>
       <c r="D117" s="4">
-        <v>7690</v>
+        <v>7735</v>
       </c>
       <c r="E117" s="4">
-        <v>77795</v>
+        <v>77930</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7937</v>
+        <v>7947</v>
       </c>
       <c r="C118" s="4">
         <v>1078</v>
       </c>
       <c r="D118" s="4">
-        <v>2858</v>
+        <v>2911</v>
       </c>
       <c r="E118" s="4">
-        <v>11873</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         <v>246</v>
       </c>
       <c r="E119" s="4">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="C120" s="4">
         <v>168</v>
@@ -3086,7 +3086,7 @@
         <v>251</v>
       </c>
       <c r="E120" s="4">
-        <v>1974</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6371</v>
+        <v>6378</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
       </c>
       <c r="D121" s="4">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="E121" s="4">
-        <v>7453</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11804</v>
+        <v>11809</v>
       </c>
       <c r="C122" s="4">
         <v>2487</v>
       </c>
       <c r="D122" s="4">
-        <v>2741</v>
+        <v>2781</v>
       </c>
       <c r="E122" s="4">
-        <v>17032</v>
+        <v>17077</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,7 +3128,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C123" s="4">
         <v>29</v>
@@ -3137,7 +3137,7 @@
         <v>232</v>
       </c>
       <c r="E123" s="4">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>142912</v>
+        <v>143098</v>
       </c>
       <c r="C124" s="4">
-        <v>11651</v>
+        <v>11656</v>
       </c>
       <c r="D124" s="4">
-        <v>25100</v>
+        <v>25587</v>
       </c>
       <c r="E124" s="4">
-        <v>179663</v>
+        <v>180341</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12000</v>
+        <v>12001</v>
       </c>
       <c r="C125" s="4">
         <v>469</v>
       </c>
       <c r="D125" s="4">
-        <v>3093</v>
+        <v>3110</v>
       </c>
       <c r="E125" s="4">
-        <v>15562</v>
+        <v>15580</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>42571</v>
+        <v>42586</v>
       </c>
       <c r="C126" s="4">
         <v>6971</v>
       </c>
       <c r="D126" s="4">
-        <v>10940</v>
+        <v>11223</v>
       </c>
       <c r="E126" s="4">
-        <v>60482</v>
+        <v>60780</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>102480</v>
+        <v>102627</v>
       </c>
       <c r="C127" s="4">
-        <v>6152</v>
+        <v>6158</v>
       </c>
       <c r="D127" s="4">
-        <v>11562</v>
+        <v>11641</v>
       </c>
       <c r="E127" s="4">
-        <v>120194</v>
+        <v>120426</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="C128" s="4">
         <v>188</v>
       </c>
       <c r="D128" s="4">
-        <v>2336</v>
+        <v>2346</v>
       </c>
       <c r="E128" s="4">
-        <v>7910</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12200</v>
+        <v>12210</v>
       </c>
       <c r="C129" s="4">
         <v>370</v>
       </c>
       <c r="D129" s="4">
-        <v>3771</v>
+        <v>3840</v>
       </c>
       <c r="E129" s="4">
-        <v>16341</v>
+        <v>16420</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>89520</v>
+        <v>89692</v>
       </c>
       <c r="C130" s="4">
-        <v>4779</v>
+        <v>4788</v>
       </c>
       <c r="D130" s="4">
-        <v>12327</v>
+        <v>12462</v>
       </c>
       <c r="E130" s="4">
-        <v>106626</v>
+        <v>106942</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>19917</v>
+        <v>19969</v>
       </c>
       <c r="C131" s="4">
         <v>1160</v>
       </c>
       <c r="D131" s="4">
-        <v>6047</v>
+        <v>6104</v>
       </c>
       <c r="E131" s="4">
-        <v>27124</v>
+        <v>27233</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>310</v>
       </c>
       <c r="E133" s="4">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>27735</v>
+        <v>27750</v>
       </c>
       <c r="C134" s="4">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D134" s="4">
-        <v>16250</v>
+        <v>16328</v>
       </c>
       <c r="E134" s="4">
-        <v>44547</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3338,10 +3338,10 @@
         <v>37</v>
       </c>
       <c r="D135" s="4">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E135" s="4">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C137" s="4">
         <v>41</v>
       </c>
       <c r="D137" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E137" s="4">
-        <v>2004</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>23705</v>
+        <v>23757</v>
       </c>
       <c r="C138" s="4">
-        <v>3910</v>
+        <v>3912</v>
       </c>
       <c r="D138" s="4">
-        <v>4892</v>
+        <v>4936</v>
       </c>
       <c r="E138" s="4">
-        <v>32507</v>
+        <v>32605</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>39</v>
       </c>
       <c r="D139" s="4">
-        <v>2248</v>
+        <v>2288</v>
       </c>
       <c r="E139" s="4">
-        <v>2912</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6421</v>
+        <v>6428</v>
       </c>
       <c r="C140" s="4">
         <v>276</v>
       </c>
       <c r="D140" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E140" s="4">
-        <v>6908</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>19519</v>
+        <v>19544</v>
       </c>
       <c r="C141" s="4">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="D141" s="4">
-        <v>2551</v>
+        <v>2595</v>
       </c>
       <c r="E141" s="4">
-        <v>24117</v>
+        <v>24189</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5117</v>
+        <v>5121</v>
       </c>
       <c r="C142" s="4">
         <v>82</v>
       </c>
       <c r="D142" s="4">
-        <v>3717</v>
+        <v>3720</v>
       </c>
       <c r="E142" s="4">
-        <v>8916</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14394</v>
+        <v>14418</v>
       </c>
       <c r="C143" s="4">
         <v>590</v>
       </c>
       <c r="D143" s="4">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E143" s="4">
-        <v>17684</v>
+        <v>17710</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10322</v>
+        <v>10335</v>
       </c>
       <c r="C144" s="4">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D144" s="4">
-        <v>2264</v>
+        <v>2273</v>
       </c>
       <c r="E144" s="4">
-        <v>12976</v>
+        <v>13002</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7068</v>
+        <v>7074</v>
       </c>
       <c r="C145" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D145" s="4">
-        <v>2230</v>
+        <v>2251</v>
       </c>
       <c r="E145" s="4">
-        <v>9504</v>
+        <v>9532</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8308</v>
+        <v>8318</v>
       </c>
       <c r="C146" s="4">
         <v>462</v>
       </c>
       <c r="D146" s="4">
-        <v>1311</v>
+        <v>1318</v>
       </c>
       <c r="E146" s="4">
-        <v>10081</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>45120</v>
+        <v>45188</v>
       </c>
       <c r="C147" s="4">
-        <v>2842</v>
+        <v>2859</v>
       </c>
       <c r="D147" s="4">
-        <v>4261</v>
+        <v>4304</v>
       </c>
       <c r="E147" s="4">
-        <v>52223</v>
+        <v>52351</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>26717</v>
+        <v>26764</v>
       </c>
       <c r="C148" s="4">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D148" s="4">
-        <v>4151</v>
+        <v>4158</v>
       </c>
       <c r="E148" s="4">
-        <v>31430</v>
+        <v>31485</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4566</v>
+        <v>4571</v>
       </c>
       <c r="C150" s="4">
         <v>796</v>
       </c>
       <c r="D150" s="4">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E150" s="4">
-        <v>5984</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8780</v>
+        <v>8805</v>
       </c>
       <c r="C151" s="4">
         <v>309</v>
       </c>
       <c r="D151" s="4">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E151" s="4">
-        <v>9815</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>176932</v>
+        <v>177226</v>
       </c>
       <c r="C153" s="4">
-        <v>6223</v>
+        <v>6229</v>
       </c>
       <c r="D153" s="4">
-        <v>79198</v>
+        <v>79402</v>
       </c>
       <c r="E153" s="4">
-        <v>262353</v>
+        <v>262857</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="C154" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D154" s="4">
         <v>1419</v>
       </c>
       <c r="E154" s="4">
-        <v>4202</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10812</v>
+        <v>10817</v>
       </c>
       <c r="C155" s="4">
         <v>155</v>
       </c>
       <c r="D155" s="4">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="E155" s="4">
-        <v>12486</v>
+        <v>12501</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="C156" s="4">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D156" s="4">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="E156" s="4">
-        <v>4037</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>124</v>
       </c>
       <c r="D157" s="4">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E157" s="4">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,7 +3723,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C158" s="4">
         <v>56</v>
@@ -3732,7 +3732,7 @@
         <v>209</v>
       </c>
       <c r="E158" s="4">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>27268</v>
+        <v>27293</v>
       </c>
       <c r="C159" s="4">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D159" s="4">
-        <v>1670</v>
+        <v>1805</v>
       </c>
       <c r="E159" s="4">
-        <v>29558</v>
+        <v>29721</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>51158</v>
+        <v>51180</v>
       </c>
       <c r="C160" s="4">
         <v>298</v>
       </c>
       <c r="D160" s="4">
-        <v>4615</v>
+        <v>4770</v>
       </c>
       <c r="E160" s="4">
-        <v>56071</v>
+        <v>56248</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="E161" s="4">
-        <v>3140</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>202784</v>
+        <v>203119</v>
       </c>
       <c r="C162" s="4">
-        <v>9336</v>
+        <v>9341</v>
       </c>
       <c r="D162" s="4">
-        <v>40695</v>
+        <v>40809</v>
       </c>
       <c r="E162" s="4">
-        <v>252815</v>
+        <v>253269</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>24628</v>
+        <v>24671</v>
       </c>
       <c r="C164" s="4">
         <v>968</v>
       </c>
       <c r="D164" s="4">
-        <v>3718</v>
+        <v>3729</v>
       </c>
       <c r="E164" s="4">
-        <v>29314</v>
+        <v>29368</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3848,10 +3848,10 @@
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E165" s="4">
-        <v>2241</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>40130</v>
+        <v>40183</v>
       </c>
       <c r="C166" s="4">
-        <v>5171</v>
+        <v>5192</v>
       </c>
       <c r="D166" s="4">
-        <v>30742</v>
+        <v>30799</v>
       </c>
       <c r="E166" s="4">
-        <v>76043</v>
+        <v>76174</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14197</v>
+        <v>14224</v>
       </c>
       <c r="C167" s="4">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D167" s="4">
-        <v>4601</v>
+        <v>4611</v>
       </c>
       <c r="E167" s="4">
-        <v>19615</v>
+        <v>19655</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3832</v>
+        <v>3838</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>957</v>
+        <v>1041</v>
       </c>
       <c r="E168" s="4">
-        <v>4871</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="C169" s="4">
         <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="E169" s="4">
-        <v>6269</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9286</v>
+        <v>9297</v>
       </c>
       <c r="C170" s="4">
         <v>745</v>
       </c>
       <c r="D170" s="4">
-        <v>2252</v>
+        <v>2257</v>
       </c>
       <c r="E170" s="4">
-        <v>12283</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>305706</v>
+        <v>306280</v>
       </c>
       <c r="C171" s="4">
-        <v>15237</v>
+        <v>15251</v>
       </c>
       <c r="D171" s="4">
-        <v>29260</v>
+        <v>29727</v>
       </c>
       <c r="E171" s="4">
-        <v>350203</v>
+        <v>351258</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3967,10 +3967,10 @@
         <v>668</v>
       </c>
       <c r="D172" s="4">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="E172" s="4">
-        <v>8957</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4952</v>
+        <v>4953</v>
       </c>
       <c r="C173" s="4">
         <v>649</v>
       </c>
       <c r="D173" s="4">
-        <v>3148</v>
+        <v>3169</v>
       </c>
       <c r="E173" s="4">
-        <v>8749</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4001,10 +4001,10 @@
         <v>9</v>
       </c>
       <c r="D174" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E174" s="4">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>35983</v>
+        <v>36034</v>
       </c>
       <c r="C175" s="4">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D175" s="4">
-        <v>4651</v>
+        <v>4730</v>
       </c>
       <c r="E175" s="4">
-        <v>41701</v>
+        <v>41833</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22838</v>
+        <v>22861</v>
       </c>
       <c r="C176" s="4">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D176" s="4">
-        <v>6733</v>
+        <v>6747</v>
       </c>
       <c r="E176" s="4">
-        <v>31050</v>
+        <v>31089</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3012</v>
+        <v>3017</v>
       </c>
       <c r="C177" s="4">
         <v>748</v>
       </c>
       <c r="D177" s="4">
-        <v>1543</v>
+        <v>1608</v>
       </c>
       <c r="E177" s="4">
-        <v>5303</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,13 +4066,13 @@
         <v>6425</v>
       </c>
       <c r="C178" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D178" s="4">
-        <v>2496</v>
+        <v>2502</v>
       </c>
       <c r="E178" s="4">
-        <v>9056</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>190367</v>
+        <v>190568</v>
       </c>
       <c r="C179" s="4">
-        <v>37286</v>
+        <v>37307</v>
       </c>
       <c r="D179" s="4">
-        <v>35559</v>
+        <v>36120</v>
       </c>
       <c r="E179" s="4">
-        <v>263212</v>
+        <v>263995</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4103,10 +4103,10 @@
         <v>182</v>
       </c>
       <c r="D180" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E180" s="4">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,13 +4117,13 @@
         <v>645</v>
       </c>
       <c r="C181" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D181" s="4">
         <v>241</v>
       </c>
       <c r="E181" s="4">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>24066</v>
+        <v>24093</v>
       </c>
       <c r="C182" s="4">
-        <v>5041</v>
+        <v>5048</v>
       </c>
       <c r="D182" s="4">
-        <v>7484</v>
+        <v>7692</v>
       </c>
       <c r="E182" s="4">
-        <v>36591</v>
+        <v>36833</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11932</v>
+        <v>11944</v>
       </c>
       <c r="C183" s="4">
         <v>882</v>
       </c>
       <c r="D183" s="4">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="E183" s="4">
-        <v>16578</v>
+        <v>16595</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7867</v>
+        <v>7869</v>
       </c>
       <c r="C184" s="4">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D184" s="4">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="E184" s="4">
-        <v>11121</v>
+        <v>11132</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>59141</v>
+        <v>59270</v>
       </c>
       <c r="C185" s="4">
-        <v>5606</v>
+        <v>5607</v>
       </c>
       <c r="D185" s="4">
-        <v>13600</v>
+        <v>13654</v>
       </c>
       <c r="E185" s="4">
-        <v>78347</v>
+        <v>78531</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4205,10 +4205,10 @@
         <v>209</v>
       </c>
       <c r="D186" s="4">
-        <v>944</v>
+        <v>1007</v>
       </c>
       <c r="E186" s="4">
-        <v>2893</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9017</v>
+        <v>9019</v>
       </c>
       <c r="C187" s="4">
         <v>85</v>
       </c>
       <c r="D187" s="4">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E187" s="4">
-        <v>9870</v>
+        <v>9874</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>27585</v>
+        <v>27680</v>
       </c>
       <c r="C188" s="4">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D188" s="4">
-        <v>4323</v>
+        <v>4383</v>
       </c>
       <c r="E188" s="4">
-        <v>32990</v>
+        <v>33147</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>64811</v>
+        <v>64971</v>
       </c>
       <c r="C189" s="4">
-        <v>6040</v>
+        <v>6048</v>
       </c>
       <c r="D189" s="4">
-        <v>8858</v>
+        <v>8932</v>
       </c>
       <c r="E189" s="4">
-        <v>79709</v>
+        <v>79951</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7030</v>
+        <v>7031</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="E190" s="4">
-        <v>8086</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="C191" s="4">
         <v>370</v>
       </c>
       <c r="D191" s="4">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E191" s="4">
-        <v>3358</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>41398</v>
+        <v>41566</v>
       </c>
       <c r="C192" s="4">
-        <v>12212</v>
+        <v>12234</v>
       </c>
       <c r="D192" s="4">
-        <v>8586</v>
+        <v>8658</v>
       </c>
       <c r="E192" s="4">
-        <v>62196</v>
+        <v>62458</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,7 +4318,7 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C193" s="4">
         <v>27</v>
@@ -4327,7 +4327,7 @@
         <v>311</v>
       </c>
       <c r="E193" s="4">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,7 +4335,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C194" s="4">
         <v>64</v>
@@ -4344,7 +4344,7 @@
         <v>424</v>
       </c>
       <c r="E194" s="4">
-        <v>2202</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="C195" s="4">
         <v>480</v>
       </c>
       <c r="D195" s="4">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="E195" s="4">
-        <v>6945</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>5624</v>
+        <v>5632</v>
       </c>
       <c r="C196" s="4">
         <v>133</v>
       </c>
       <c r="D196" s="4">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E196" s="4">
-        <v>6395</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3600</v>
+        <v>3605</v>
       </c>
       <c r="C197" s="4">
         <v>346</v>
       </c>
       <c r="D197" s="4">
-        <v>2355</v>
+        <v>2360</v>
       </c>
       <c r="E197" s="4">
-        <v>6301</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10214</v>
+        <v>10226</v>
       </c>
       <c r="C199" s="4">
         <v>253</v>
       </c>
       <c r="D199" s="4">
-        <v>5090</v>
+        <v>5282</v>
       </c>
       <c r="E199" s="4">
-        <v>15557</v>
+        <v>15761</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>63404</v>
+        <v>63501</v>
       </c>
       <c r="C200" s="4">
-        <v>4819</v>
+        <v>4825</v>
       </c>
       <c r="D200" s="4">
-        <v>4045</v>
+        <v>4075</v>
       </c>
       <c r="E200" s="4">
-        <v>72268</v>
+        <v>72401</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5290</v>
+        <v>5291</v>
       </c>
       <c r="C201" s="4">
         <v>141</v>
       </c>
       <c r="D201" s="4">
-        <v>2297</v>
+        <v>2302</v>
       </c>
       <c r="E201" s="4">
-        <v>7728</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16196</v>
+        <v>16206</v>
       </c>
       <c r="C202" s="4">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="D202" s="4">
-        <v>1863</v>
+        <v>1874</v>
       </c>
       <c r="E202" s="4">
-        <v>19922</v>
+        <v>19945</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5187</v>
+        <v>5192</v>
       </c>
       <c r="C203" s="4">
         <v>364</v>
       </c>
       <c r="D203" s="4">
-        <v>1609</v>
+        <v>1651</v>
       </c>
       <c r="E203" s="4">
-        <v>7160</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4792</v>
+        <v>4815</v>
       </c>
       <c r="C204" s="4">
         <v>66</v>
       </c>
       <c r="D204" s="4">
-        <v>1666</v>
+        <v>1750</v>
       </c>
       <c r="E204" s="4">
-        <v>6524</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>13973</v>
+        <v>13988</v>
       </c>
       <c r="C205" s="4">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="D205" s="4">
-        <v>2134</v>
+        <v>2171</v>
       </c>
       <c r="E205" s="4">
-        <v>17475</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>25903</v>
+        <v>25944</v>
       </c>
       <c r="C206" s="4">
-        <v>6785</v>
+        <v>6790</v>
       </c>
       <c r="D206" s="4">
-        <v>11899</v>
+        <v>12015</v>
       </c>
       <c r="E206" s="4">
-        <v>44587</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="C207" s="4">
         <v>77</v>
       </c>
       <c r="D207" s="4">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="E207" s="4">
-        <v>4182</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15514</v>
+        <v>15518</v>
       </c>
       <c r="C209" s="4">
         <v>164</v>
       </c>
       <c r="D209" s="4">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E209" s="4">
-        <v>16231</v>
+        <v>16238</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4613,10 +4613,10 @@
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E210" s="4">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10448</v>
+        <v>10459</v>
       </c>
       <c r="C211" s="4">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D211" s="4">
-        <v>2432</v>
+        <v>2476</v>
       </c>
       <c r="E211" s="4">
-        <v>13268</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>158204</v>
+        <v>158264</v>
       </c>
       <c r="C213" s="4">
-        <v>8779</v>
+        <v>8783</v>
       </c>
       <c r="D213" s="4">
-        <v>16396</v>
+        <v>16459</v>
       </c>
       <c r="E213" s="4">
-        <v>183379</v>
+        <v>183506</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3730</v>
+        <v>3736</v>
       </c>
       <c r="C214" s="4">
         <v>358</v>
       </c>
       <c r="D214" s="4">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="E214" s="4">
-        <v>7716</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>43721</v>
+        <v>43737</v>
       </c>
       <c r="C215" s="4">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D215" s="4">
-        <v>5909</v>
+        <v>5995</v>
       </c>
       <c r="E215" s="4">
-        <v>50153</v>
+        <v>50258</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1370</v>
+        <v>1377</v>
       </c>
       <c r="E216" s="4">
-        <v>3933</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E218" s="4">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C219" s="4">
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E219" s="4">
-        <v>1807</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3212</v>
+        <v>3221</v>
       </c>
       <c r="C220" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D220" s="4">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E220" s="4">
-        <v>4160</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1387406</v>
+        <v>1390571</v>
       </c>
       <c r="C221" s="4">
-        <v>84654</v>
+        <v>84706</v>
       </c>
       <c r="D221" s="4">
-        <v>133126</v>
+        <v>134108</v>
       </c>
       <c r="E221" s="4">
-        <v>1605186</v>
+        <v>1609385</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>76718</v>
+        <v>76727</v>
       </c>
       <c r="C222" s="4">
-        <v>3050</v>
+        <v>3055</v>
       </c>
       <c r="D222" s="4">
-        <v>34934</v>
+        <v>35093</v>
       </c>
       <c r="E222" s="4">
-        <v>114702</v>
+        <v>114875</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E223" s="4">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2902</v>
+        <v>2978</v>
       </c>
       <c r="C224" s="4">
         <v>103</v>
       </c>
       <c r="D224" s="4">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E224" s="4">
-        <v>3988</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20283</v>
+        <v>20286</v>
       </c>
       <c r="C226" s="4">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D226" s="4">
-        <v>3036</v>
+        <v>3044</v>
       </c>
       <c r="E226" s="4">
-        <v>24386</v>
+        <v>24398</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>67593</v>
+        <v>67642</v>
       </c>
       <c r="C227" s="4">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D227" s="4">
-        <v>34900</v>
+        <v>34945</v>
       </c>
       <c r="E227" s="4">
-        <v>103933</v>
+        <v>104029</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>839123</v>
+        <v>840684</v>
       </c>
       <c r="C228" s="4">
-        <v>37710</v>
+        <v>37746</v>
       </c>
       <c r="D228" s="4">
-        <v>98610</v>
+        <v>99441</v>
       </c>
       <c r="E228" s="4">
-        <v>975443</v>
+        <v>977871</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9302</v>
+        <v>9306</v>
       </c>
       <c r="C229" s="4">
         <v>217</v>
       </c>
       <c r="D229" s="4">
-        <v>2162</v>
+        <v>2190</v>
       </c>
       <c r="E229" s="4">
-        <v>11681</v>
+        <v>11713</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7827</v>
+        <v>7836</v>
       </c>
       <c r="C230" s="4">
         <v>839</v>
       </c>
       <c r="D230" s="4">
-        <v>3665</v>
+        <v>3675</v>
       </c>
       <c r="E230" s="4">
-        <v>12331</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9392</v>
+        <v>9396</v>
       </c>
       <c r="C231" s="4">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="D231" s="4">
-        <v>2909</v>
+        <v>2926</v>
       </c>
       <c r="E231" s="4">
-        <v>14172</v>
+        <v>14201</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,7 +4981,7 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C232" s="4">
         <v>66</v>
@@ -4990,7 +4990,7 @@
         <v>1414</v>
       </c>
       <c r="E232" s="4">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>21903</v>
+        <v>21923</v>
       </c>
       <c r="C233" s="4">
         <v>338</v>
       </c>
       <c r="D233" s="4">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="E233" s="4">
-        <v>23258</v>
+        <v>23302</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>38172</v>
+        <v>38212</v>
       </c>
       <c r="C234" s="4">
         <v>1107</v>
       </c>
       <c r="D234" s="4">
-        <v>6473</v>
+        <v>6546</v>
       </c>
       <c r="E234" s="4">
-        <v>45752</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16255</v>
+        <v>16283</v>
       </c>
       <c r="C235" s="4">
         <v>1679</v>
       </c>
       <c r="D235" s="4">
-        <v>4951</v>
+        <v>4974</v>
       </c>
       <c r="E235" s="4">
-        <v>22885</v>
+        <v>22936</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>34649</v>
+        <v>34700</v>
       </c>
       <c r="C236" s="4">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D236" s="4">
-        <v>11205</v>
+        <v>11277</v>
       </c>
       <c r="E236" s="4">
-        <v>47253</v>
+        <v>47377</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>87147</v>
+        <v>87280</v>
       </c>
       <c r="C237" s="4">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D237" s="4">
-        <v>6646</v>
+        <v>6974</v>
       </c>
       <c r="E237" s="4">
-        <v>94880</v>
+        <v>95342</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>27142</v>
+        <v>27186</v>
       </c>
       <c r="C238" s="4">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D238" s="4">
-        <v>1816</v>
+        <v>1885</v>
       </c>
       <c r="E238" s="4">
-        <v>29672</v>
+        <v>29787</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4120</v>
+        <v>4124</v>
       </c>
       <c r="C239" s="4">
         <v>121</v>
       </c>
       <c r="D239" s="4">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E239" s="4">
-        <v>4545</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>32061</v>
+        <v>32095</v>
       </c>
       <c r="C240" s="4">
         <v>515</v>
       </c>
       <c r="D240" s="4">
-        <v>4270</v>
+        <v>4279</v>
       </c>
       <c r="E240" s="4">
-        <v>36846</v>
+        <v>36889</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>314527</v>
+        <v>315542</v>
       </c>
       <c r="C241" s="4">
-        <v>4204</v>
+        <v>4213</v>
       </c>
       <c r="D241" s="4">
-        <v>34062</v>
+        <v>34151</v>
       </c>
       <c r="E241" s="4">
-        <v>352793</v>
+        <v>353906</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>27673</v>
+        <v>27711</v>
       </c>
       <c r="C242" s="4">
         <v>735</v>
       </c>
       <c r="D242" s="4">
-        <v>2055</v>
+        <v>2082</v>
       </c>
       <c r="E242" s="4">
-        <v>30463</v>
+        <v>30528</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>281</v>
       </c>
       <c r="D243" s="4">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="E243" s="4">
-        <v>3538</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>96079</v>
+        <v>96129</v>
       </c>
       <c r="C244" s="4">
-        <v>4935</v>
+        <v>4937</v>
       </c>
       <c r="D244" s="4">
-        <v>16918</v>
+        <v>17222</v>
       </c>
       <c r="E244" s="4">
-        <v>117932</v>
+        <v>118288</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10456</v>
+        <v>10460</v>
       </c>
       <c r="C245" s="4">
         <v>465</v>
       </c>
       <c r="D245" s="4">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="E245" s="4">
-        <v>14349</v>
+        <v>14356</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>20038</v>
+        <v>20149</v>
       </c>
       <c r="C246" s="4">
         <v>162</v>
       </c>
       <c r="D246" s="4">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="E246" s="4">
-        <v>21358</v>
+        <v>21474</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>356605</v>
+        <v>357716</v>
       </c>
       <c r="C247" s="4">
-        <v>13443</v>
+        <v>13455</v>
       </c>
       <c r="D247" s="4">
-        <v>42112</v>
+        <v>42542</v>
       </c>
       <c r="E247" s="4">
-        <v>412160</v>
+        <v>413713</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>27675</v>
+        <v>27716</v>
       </c>
       <c r="C248" s="4">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D248" s="4">
-        <v>5732</v>
+        <v>5779</v>
       </c>
       <c r="E248" s="4">
-        <v>34265</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E249" s="4">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>39868</v>
+        <v>39920</v>
       </c>
       <c r="C250" s="4">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="D250" s="4">
-        <v>4381</v>
+        <v>4405</v>
       </c>
       <c r="E250" s="4">
-        <v>47206</v>
+        <v>47285</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14508</v>
+        <v>14516</v>
       </c>
       <c r="C251" s="4">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D251" s="4">
-        <v>2917</v>
+        <v>2924</v>
       </c>
       <c r="E251" s="4">
-        <v>19141</v>
+        <v>19157</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C252" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D252" s="4">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E252" s="4">
-        <v>2632</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6181</v>
+        <v>6203</v>
       </c>
       <c r="C253" s="4">
         <v>509</v>
       </c>
       <c r="D253" s="4">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="E253" s="4">
-        <v>8084</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14871</v>
+        <v>14888</v>
       </c>
       <c r="C254" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D254" s="4">
-        <v>3221</v>
+        <v>3226</v>
       </c>
       <c r="E254" s="4">
-        <v>18209</v>
+        <v>18233</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8680</v>
+        <v>8688</v>
       </c>
       <c r="C255" s="4">
         <v>214</v>
       </c>
       <c r="D255" s="4">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E255" s="4">
-        <v>9348</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>129481</v>
+        <v>129723</v>
       </c>
       <c r="C256" s="4">
-        <v>7107</v>
+        <v>7257</v>
       </c>
       <c r="D256" s="4">
-        <v>3735</v>
+        <v>3770</v>
       </c>
       <c r="E256" s="4">
-        <v>140323</v>
+        <v>140750</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>19199117</v>
+        <v>19242281</v>
       </c>
       <c r="C257" s="4">
-        <v>996125</v>
+        <v>997580</v>
       </c>
       <c r="D257" s="4">
-        <v>2320201</v>
+        <v>2341176</v>
       </c>
       <c r="E257" s="4">
-        <v>22515443</v>
+        <v>22581037</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
